--- a/REVER_DailyTracker_20200923.xlsx
+++ b/REVER_DailyTracker_20200923.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AB10C0-3F7B-428F-A1BE-8BC3798E8052}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51BB769-FAA3-4480-BF64-0E9E0CF7DBCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="22">
   <si>
     <t>Task</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t xml:space="preserve"> QMVAR - Daily_repairsetSetNP                              </t>
+  </si>
+  <si>
+    <t>B2C-Pickup and Delivery</t>
+  </si>
+  <si>
+    <t>New parameters for Pick and Delivery.</t>
+  </si>
+  <si>
+    <t>Warranty Status to be saved in Add Devices</t>
   </si>
 </sst>
 </file>
@@ -1199,15 +1208,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
@@ -1240,9 +1249,15 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
@@ -1250,7 +1265,9 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
@@ -1310,7 +1327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
